--- a/Job_App_SheetTemplate.xlsx
+++ b/Job_App_SheetTemplate.xlsx
@@ -4,18 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Applications" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Application count" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Application Count" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Company Breakdown" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Results Breakdown" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +53,9 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>Total apps</t>
   </si>
   <si>
@@ -63,9 +69,6 @@
   </si>
   <si>
     <t>% any response</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -95,17 +98,6 @@
     </font>
     <font>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -184,40 +176,36 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,126 +221,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>% Responses</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.02916666666666667"/>
-          <c:y val="0.14233954451345757"/>
-          <c:w val="0.9416666666666665"/>
-          <c:h val="0.8045548654244307"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Application count'!$J$2</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00FF00"/>
-              </a:solidFill>
-              <a:ln cmpd="sng" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Application count'!$K$1:$M$1</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Application count'!$K$2:$M$2</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:holeSize val="50"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="1" i="1">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -392,36 +260,26 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Application count'!$B$1</c:f>
+              <c:f>'Application Count'!$B$1</c:f>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Application count'!$A$2:$A$3</c:f>
+              <c:f>'Application Count'!$A$2:$A$3</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Application count'!$B$2:$B$3</c:f>
+              <c:f>'Application Count'!$B$2:$B$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1651045979"/>
-        <c:axId val="693053795"/>
+        <c:axId val="476302213"/>
+        <c:axId val="303760414"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1651045979"/>
+        <c:axId val="476302213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,85 +331,22 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693053795"/>
+        <c:crossAx val="303760414"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="693053795"/>
+        <c:axId val="303760414"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1651045979"/>
+        <c:crossAx val="476302213"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -577,6 +372,373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Count vs. Company</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Company Breakdown'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Company Breakdown'!$A$2:$A$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Company Breakdown'!$B$2:$B$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1943380429"/>
+        <c:axId val="1594307603"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1943380429"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Company</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594307603"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1594307603"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="1943380429"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Company Breakdown'!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Company Breakdown'!$A$2:$A$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Company Breakdown'!$B$2:$B$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Results breakdown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Results Breakdown'!$A$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Results Breakdown'!$B$1:$D$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Results Breakdown'!$B$2:$D$2</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -585,12 +747,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5257800" cy="3067050"/>
+    <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -608,17 +770,47 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -636,6 +828,36 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
   <cacheSource type="worksheet">
@@ -651,13 +873,48 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:B1000" sheet="Applications"/>
+  </cacheSource>
+  <cacheFields>
+    <cacheField name="Company" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Application count" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A1:B3" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Application Count" cacheId="0" dataCaption="" compact="0" compactData="0">
+  <location ref="A1:B2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="Date" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
       <items>
-        <item x="0"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields>
+    <field x="0"/>
+  </rowFields>
+  <dataFields>
+    <dataField name="Count" fld="0" subtotal="count" baseField="0"/>
+  </dataFields>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Company Breakdown" cacheId="1" dataCaption="" compact="0" compactData="0">
+  <location ref="A1:B2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields>
+    <pivotField name="Company" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -948,16 +1205,20 @@
     </row>
     <row r="5">
       <c r="A5" s="2"/>
-      <c r="E5" s="6"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
-      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8">
@@ -974,7 +1235,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12">
@@ -987,12 +1248,12 @@
     </row>
     <row r="14">
       <c r="A14" s="2"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="6"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
@@ -1000,8 +1261,8 @@
     </row>
     <row r="17">
       <c r="A17" s="2"/>
-      <c r="E17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="H17" s="8"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18">
@@ -1011,7 +1272,7 @@
     <row r="19">
       <c r="A19" s="2"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
@@ -1021,11 +1282,11 @@
     <row r="21" ht="18.0" customHeight="1">
       <c r="A21" s="2"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23">
@@ -1037,7 +1298,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -1048,7 +1309,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="11"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29">
@@ -1111,7 +1372,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2"/>
-      <c r="E43" s="14"/>
+      <c r="E43" s="12"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44">
@@ -1135,7 +1396,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2"/>
-      <c r="E49" s="15"/>
+      <c r="E49" s="13"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
     </row>
@@ -1165,7 +1426,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2"/>
-      <c r="E57" s="16"/>
+      <c r="E57" s="14"/>
       <c r="G57" s="3"/>
     </row>
     <row r="58">
@@ -1177,7 +1438,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1198,67 +1459,99 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" hidden="1">
-      <c r="J2" s="17">
-        <f>COUNTIF(#REF!, "&lt;&gt;")-1</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="str">
-        <f>COUNTIFS(#REF!,"&lt;&gt;",#REF!,"*interview*") / $T$2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="5" t="str">
-        <f>COUNTIFS(#REF!,"&lt;&gt;",#REF!,"*reject*") / $T$2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="5" t="str">
-        <f>COUNTIFS(#REF!,"&lt;&gt;",#REF!,"") / $T$2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="17" t="str">
-        <f t="shared" ref="N2:N3" si="1">SUM(K2:L2)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3">
-      <c r="J3" s="19">
-        <f>COUNTIF(Applications!A:A, "&lt;&gt;")-1</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="20" t="str">
-        <f>COUNTIFS(Applications!A:A,"&lt;&gt;",Applications!H:H,"*interview*") / $J$3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="20" t="str">
-        <f>COUNTIFS(Applications!A:A,"&lt;&gt;",Applications!H:H,"*reject*") / $J$3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="20" t="str">
-        <f>COUNTIFS(Applications!A:A,"&lt;&gt;",Applications!H:H,"") / $J$3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+  </sheetData>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="17.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15">
+        <f>COUNTIF(Applications!A:A, "&lt;&gt;")-1</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="str">
+        <f>COUNTIFS(Applications!A:A,"&lt;&gt;",Applications!H:H,"*interview*") / $A$2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C2" s="18" t="str">
+        <f>COUNTIFS(Applications!A:A,"&lt;&gt;",Applications!H:H,"*reject*") / $A$2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f>COUNTIFS(Applications!A:A,"&lt;&gt;",Applications!H:H,"") / $A$2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" s="18" t="str">
+        <f>SUM(B2:C2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>